--- a/biology/Zoologie/Euphilotes/Euphilotes.xlsx
+++ b/biology/Zoologie/Euphilotes/Euphilotes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre  Euphilotes regroupe des insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom  Euphilotes leur a été donné par Mattoni en 1978.
 </t>
@@ -542,7 +556,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur aire de répartition est l'Amérique du Nord.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Euphilotes ancilla (Barnes et McDunnough, 1918) présent en Oregon
 Euphilotes battoides(Behr, 1867)
@@ -603,14 +621,14 @@
 Euphilotes intermedia (Barnes &amp; McDunnough, 1917) en Californie.
 Euphilotes intermedia oregonensis (Barnes &amp; McDunnough, 1917) dans le sud de l'Oregon.
 Euphilotes mojaves (Watson et Comstock, 1920) présent en Californie.
-Euphilotes pallescens(Tilden &amp; Downey, 1955) présent sur la cote est des USA[1]
+Euphilotes pallescens(Tilden &amp; Downey, 1955) présent sur la cote est des USA
 Euphilotes pallescens elvirae (Mattoni, 1966)
 Euphilotes rita (Barnes et McDunnough, 1916) le Rita Blue présent du Nevada au Texas.
 Euphilotes rita rita
 Euphilotes rita coloradensis (Mattoni, 1966)
 Euphilotes rita emmeli (Shields, 1975)
 Euphilotes rita mattoni (Shields, 1975)
-Euphilotes spaldingi (Barnes et McDunnough, 1917) présent au nord-est des USA[2]</t>
+Euphilotes spaldingi (Barnes et McDunnough, 1917) présent au nord-est des USA</t>
         </is>
       </c>
     </row>
@@ -638,7 +656,9 @@
           <t>Première publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) [PDF] RHT Mattoni, The Scolitantidini : I - Two new genera and a generic rearrangement (Lycaenidae), Journal of Research on the Lepidoptera 16(4): 224-225 Texte complet
 </t>
